--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T08:02:25+00:00</t>
+    <t>2024-08-29T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T08:02:49+00:00</t>
+    <t>2024-08-29T13:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T13:19:54+00:00</t>
+    <t>2024-08-30T15:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T15:18:37+00:00</t>
+    <t>2024-09-02T07:30:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-02T07:30:41+00:00</t>
+    <t>2024-09-02T10:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T08:52:24+00:00</t>
+    <t>2024-09-05T14:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:43:00+00:00</t>
+    <t>2024-09-05T15:05:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:05:05+00:00</t>
+    <t>2024-09-05T15:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:42:45+00:00</t>
+    <t>2024-09-05T15:55:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:55:57+00:00</t>
+    <t>2024-09-05T15:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T15:56:49+00:00</t>
+    <t>2024-09-06T07:42:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T07:42:23+00:00</t>
+    <t>2024-09-23T13:32:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T13:32:27+00:00</t>
+    <t>2024-10-21T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T14:11:02+00:00</t>
+    <t>2024-11-04T17:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T17:05:23+00:00</t>
+    <t>2024-11-04T17:44:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T17:44:00+00:00</t>
+    <t>2024-11-06T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T14:17:39+00:00</t>
+    <t>2024-11-08T16:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:57:40+00:00</t>
+    <t>2024-11-12T17:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T17:14:44+00:00</t>
+    <t>2024-11-18T14:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T14:04:27+00:00</t>
+    <t>2024-11-18T15:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T15:32:48+00:00</t>
+    <t>2024-12-02T15:45:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:45:18+00:00</t>
+    <t>2024-12-03T14:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T14:08:49+00:00</t>
+    <t>2024-12-03T16:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:43:00+00:00</t>
+    <t>2024-12-03T17:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le service d’agrégation de créneaux de la plateforme SAS (Service d’accès aux soins), dans le cadre du cas d’usage SOS Médecins</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:24:51+00:00</t>
+    <t>2024-12-05T15:50:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T15:50:46+00:00</t>
+    <t>2024-12-05T17:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T17:04:27+00:00</t>
+    <t>2024-12-10T10:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T10:08:39+00:00</t>
+    <t>2024-12-10T11:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:59:20+00:00</t>
+    <t>2024-12-17T08:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T08:23:13+00:00</t>
+    <t>2025-01-27T12:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T12:37:17+00:00</t>
+    <t>2025-01-27T12:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T12:56:56+00:00</t>
+    <t>2025-01-27T16:27:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:27:44+00:00</t>
+    <t>2025-03-12T14:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$79</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T14:15:42+00:00</t>
+    <t>2025-07-01T07:19:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1560,6 +1563,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1743,15 +1761,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="98.87890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="63.3203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.0078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="84.7734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.01171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1762,21 +1780,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.23046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1890,7 +1908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -2192,7 +2210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -2294,7 +2312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>116</v>
       </c>
@@ -2600,7 +2618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>123</v>
       </c>
@@ -2700,7 +2718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>132</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>137</v>
       </c>
@@ -2902,7 +2920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>143</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>146</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>153</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>161</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>164</v>
       </c>
@@ -3404,7 +3422,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>166</v>
       </c>
@@ -3506,7 +3524,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>172</v>
       </c>
@@ -3608,7 +3626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>179</v>
       </c>
@@ -3710,7 +3728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>188</v>
       </c>
@@ -3812,7 +3830,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>195</v>
       </c>
@@ -3912,7 +3930,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>197</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>199</v>
       </c>
@@ -4118,7 +4136,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>209</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>219</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>221</v>
       </c>
@@ -4424,7 +4442,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>223</v>
       </c>
@@ -4526,7 +4544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>232</v>
       </c>
@@ -4626,7 +4644,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>234</v>
       </c>
@@ -4728,7 +4746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>236</v>
       </c>
@@ -4832,7 +4850,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>243</v>
       </c>
@@ -4934,7 +4952,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>249</v>
       </c>
@@ -5038,7 +5056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>256</v>
       </c>
@@ -5142,7 +5160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>262</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>270</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>277</v>
       </c>
@@ -5454,7 +5472,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>285</v>
       </c>
@@ -5556,7 +5574,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>292</v>
       </c>
@@ -5658,7 +5676,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>300</v>
       </c>
@@ -5760,7 +5778,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>308</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>314</v>
       </c>
@@ -5966,7 +5984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>319</v>
       </c>
@@ -6066,7 +6084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>322</v>
       </c>
@@ -6166,7 +6184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>323</v>
       </c>
@@ -6268,7 +6286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>324</v>
       </c>
@@ -6372,7 +6390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>325</v>
       </c>
@@ -6476,7 +6494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>326</v>
       </c>
@@ -6580,7 +6598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>327</v>
       </c>
@@ -6682,7 +6700,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>328</v>
       </c>
@@ -6784,7 +6802,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>329</v>
       </c>
@@ -6886,7 +6904,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>330</v>
       </c>
@@ -6988,7 +7006,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>336</v>
       </c>
@@ -7088,7 +7106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>342</v>
       </c>
@@ -7188,7 +7206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>346</v>
       </c>
@@ -7288,7 +7306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>351</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>355</v>
       </c>
@@ -7488,7 +7506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>359</v>
       </c>
@@ -7590,7 +7608,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>364</v>
       </c>
@@ -7692,7 +7710,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>369</v>
       </c>
@@ -7794,7 +7812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>374</v>
       </c>
@@ -7896,7 +7914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>377</v>
       </c>
@@ -7998,7 +8016,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>381</v>
       </c>
@@ -8100,7 +8118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>386</v>
       </c>
@@ -8202,7 +8220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>389</v>
       </c>
@@ -8304,7 +8322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>394</v>
       </c>
@@ -8406,7 +8424,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>398</v>
       </c>
@@ -8425,7 +8443,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>72</v>
@@ -8508,7 +8526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>403</v>
       </c>
@@ -8610,7 +8628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>407</v>
       </c>
@@ -8712,7 +8730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>410</v>
       </c>
@@ -8814,7 +8832,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>415</v>
       </c>
@@ -8914,7 +8932,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>420</v>
       </c>
@@ -9014,7 +9032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>421</v>
       </c>
@@ -9116,7 +9134,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>422</v>
       </c>
@@ -9220,7 +9238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>427</v>
       </c>
@@ -9322,7 +9340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>433</v>
       </c>
@@ -9424,7 +9442,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>437</v>
       </c>
@@ -9526,7 +9544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>442</v>
       </c>
@@ -9626,7 +9644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>446</v>
       </c>
@@ -9728,7 +9746,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>449</v>
       </c>
@@ -9831,6 +9849,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ79">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI78">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T07:19:50+00:00</t>
+    <t>2025-07-10T12:47:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T12:47:36+00:00</t>
+    <t>2025-09-02T16:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-02T16:23:58+00:00</t>
+    <t>2025-09-09T16:27:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -697,7 +697,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -957,7 +957,7 @@
     <t>Appointment.extension.value[x].identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T16:27:22+00:00</t>
+    <t>2025-11-04T10:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8424,7 +8424,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>398</v>
       </c>
@@ -9850,12 +9850,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ79">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T10:04:56+00:00</t>
+    <t>2025-11-21T13:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T13:35:41+00:00</t>
+    <t>2025-11-24T13:41:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T13:41:23+00:00</t>
+    <t>2025-11-24T14:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/main/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T14:06:07+00:00</t>
+    <t>2025-11-25T08:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
